--- a/wikischema/File/Cyclic_Voltammetry_Template.xlsx
+++ b/wikischema/File/Cyclic_Voltammetry_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86998CE1-D100-4F02-B981-DC3999127B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBC4F5EC-0703-44F3-870F-C67A0C75E9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,42 +20,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>Analyte</t>
-  </si>
-  <si>
-    <t>Analyte_data</t>
-  </si>
-  <si>
-    <t>Analyte concentration</t>
-  </si>
-  <si>
-    <t>Reduction potential</t>
-  </si>
-  <si>
-    <t>Reduction potential_data</t>
-  </si>
-  <si>
-    <t>Solvent A</t>
-  </si>
-  <si>
-    <t>Solvent A_data</t>
-  </si>
-  <si>
-    <t>Solvent volume</t>
-  </si>
-  <si>
-    <t>Electrolyte</t>
-  </si>
-  <si>
-    <t>Electrolyte concentration</t>
-  </si>
-  <si>
-    <t>Internal reference compound</t>
-  </si>
-  <si>
-    <t>Scan rate</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>Analyte_inchikey</t>
+  </si>
+  <si>
+    <t>Analyte_molfile</t>
+  </si>
+  <si>
+    <t>Analyte concentration [mM]</t>
+  </si>
+  <si>
+    <t>Redox potential</t>
+  </si>
+  <si>
+    <t>E0 [V]</t>
+  </si>
+  <si>
+    <t>Ered1 [V]</t>
+  </si>
+  <si>
+    <t>Ered2 [V]</t>
+  </si>
+  <si>
+    <t>Ered3 [V]</t>
+  </si>
+  <si>
+    <t>Eox1 [V]</t>
+  </si>
+  <si>
+    <t>Eox2 [V]</t>
+  </si>
+  <si>
+    <t>Eox3 [V]</t>
+  </si>
+  <si>
+    <t>Solvent A_inchikey</t>
+  </si>
+  <si>
+    <t>Solvent A_molfile</t>
+  </si>
+  <si>
+    <t>Solvent volume [ml]</t>
+  </si>
+  <si>
+    <t>Electrolyte_inchikey</t>
+  </si>
+  <si>
+    <t>Electrolyte_molfile</t>
+  </si>
+  <si>
+    <t>Electrolyte purity [%]</t>
+  </si>
+  <si>
+    <t>Electrolyte concentration [M]</t>
+  </si>
+  <si>
+    <t>Internal reference compound_inchikey</t>
+  </si>
+  <si>
+    <t>Internal reference compound_molfile</t>
+  </si>
+  <si>
+    <t>Scan rate [mV/s]</t>
   </si>
   <si>
     <t>Scan number</t>
@@ -70,7 +97,7 @@
     <t>Gas</t>
   </si>
   <si>
-    <t>Temperature</t>
+    <t>TemperatureP [°C]</t>
   </si>
   <si>
     <t>Condition</t>
@@ -79,7 +106,7 @@
     <t>Working electrode</t>
   </si>
   <si>
-    <t>Working electrode surface area</t>
+    <t>Working electrode surface area [mm²]</t>
   </si>
   <si>
     <t>Counter electrode</t>
@@ -441,18 +468,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:AH1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Y10"/>
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="25" max="25" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,6 +555,33 @@
       </c>
       <c r="Y1" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/wikischema/File/Cyclic_Voltammetry_Template.xlsx
+++ b/wikischema/File/Cyclic_Voltammetry_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBC4F5EC-0703-44F3-870F-C67A0C75E9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5B60275-7E73-49D0-B4F4-5CA6205FC92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,106 +22,106 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
-    <t>Analyte_inchikey</t>
+    <t>Analyte_inchikey &lt;anl&gt;</t>
   </si>
   <si>
     <t>Analyte_molfile</t>
   </si>
   <si>
-    <t>Analyte concentration [mM]</t>
-  </si>
-  <si>
-    <t>Redox potential</t>
-  </si>
-  <si>
-    <t>E0 [V]</t>
-  </si>
-  <si>
-    <t>Ered1 [V]</t>
-  </si>
-  <si>
-    <t>Ered2 [V]</t>
-  </si>
-  <si>
-    <t>Ered3 [V]</t>
-  </si>
-  <si>
-    <t>Eox1 [V]</t>
-  </si>
-  <si>
-    <t>Eox2 [V]</t>
-  </si>
-  <si>
-    <t>Eox3 [V]</t>
-  </si>
-  <si>
-    <t>Solvent A_inchikey</t>
+    <t>Analyte concentration [mM] &lt;anl conc&gt;</t>
+  </si>
+  <si>
+    <t>Redox potential &lt;redox potential&gt;</t>
+  </si>
+  <si>
+    <t>E0 [eV] &lt;e0&gt;</t>
+  </si>
+  <si>
+    <t>Ered1 [eV] &lt;e_red1&gt;</t>
+  </si>
+  <si>
+    <t>Ered2 [eV] &lt;e_red2&gt;</t>
+  </si>
+  <si>
+    <t>Ered3 [eV] &lt;e_red3&gt;</t>
+  </si>
+  <si>
+    <t>Eox1 [eV] &lt;e_ox1&gt;</t>
+  </si>
+  <si>
+    <t>Eox2 [eV] &lt;e_ox2&gt;</t>
+  </si>
+  <si>
+    <t>Eox3 [eV] &lt;e_ox3&gt;</t>
+  </si>
+  <si>
+    <t>Solvent A_inchikey &lt;solv&gt;</t>
   </si>
   <si>
     <t>Solvent A_molfile</t>
   </si>
   <si>
-    <t>Solvent volume [ml]</t>
-  </si>
-  <si>
-    <t>Electrolyte_inchikey</t>
+    <t>Solvent volume [ml] &lt;solv vol&gt;</t>
+  </si>
+  <si>
+    <t>Electrolyte_inchikey &lt;electrolyte&gt;</t>
   </si>
   <si>
     <t>Electrolyte_molfile</t>
   </si>
   <si>
-    <t>Electrolyte purity [%]</t>
-  </si>
-  <si>
-    <t>Electrolyte concentration [M]</t>
-  </si>
-  <si>
-    <t>Internal reference compound_inchikey</t>
+    <t>Electrolyte purity [%] &lt;electrolyte purity&gt;</t>
+  </si>
+  <si>
+    <t>Electrolyte concentration [M] &lt;el conc&gt;</t>
+  </si>
+  <si>
+    <t>Internal reference compound_inchikey &lt;int ref comp&gt;</t>
   </si>
   <si>
     <t>Internal reference compound_molfile</t>
   </si>
   <si>
-    <t>Scan rate [mV/s]</t>
-  </si>
-  <si>
-    <t>Scan number</t>
-  </si>
-  <si>
-    <t>Potential window</t>
-  </si>
-  <si>
-    <t>Scan direction</t>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>TemperatureP [°C]</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Working electrode</t>
-  </si>
-  <si>
-    <t>Working electrode surface area [mm²]</t>
-  </si>
-  <si>
-    <t>Counter electrode</t>
-  </si>
-  <si>
-    <t>Reference electrode</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>Included</t>
-  </si>
-  <si>
-    <t>BasePageName</t>
+    <t>Scan rate [mV/s] &lt;scan rate&gt;</t>
+  </si>
+  <si>
+    <t>Scan number &lt;scan number&gt;</t>
+  </si>
+  <si>
+    <t>Potential window &lt;potential window&gt;</t>
+  </si>
+  <si>
+    <t>Scan direction &lt;scan dir&gt;</t>
+  </si>
+  <si>
+    <t>Gas &lt;gas&gt;</t>
+  </si>
+  <si>
+    <t>TemperatureP [°C] &lt;temp&gt;</t>
+  </si>
+  <si>
+    <t>Condition &lt;cond&gt;</t>
+  </si>
+  <si>
+    <t>Working electrode &lt;WE&gt;</t>
+  </si>
+  <si>
+    <t>Working electrode surface area [mm²] &lt;WE area&gt;</t>
+  </si>
+  <si>
+    <t>Counter electrode &lt;CE&gt;</t>
+  </si>
+  <si>
+    <t>Reference electrode &lt;RE&gt;</t>
+  </si>
+  <si>
+    <t>Details &lt;details&gt;</t>
+  </si>
+  <si>
+    <t>Included &lt;include&gt;</t>
+  </si>
+  <si>
+    <t>BasePageName &lt;BasePageName&gt;</t>
   </si>
 </sst>
 </file>
@@ -471,13 +471,12 @@
   <dimension ref="A1:AH1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">

--- a/wikischema/File/Cyclic_Voltammetry_Template.xlsx
+++ b/wikischema/File/Cyclic_Voltammetry_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5B60275-7E73-49D0-B4F4-5CA6205FC92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFF59C0F-A3AE-4A4B-9C1D-6A7F88EA85D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,12 +471,12 @@
   <dimension ref="A1:AH1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
